--- a/Daily Backup hourlys/30 min csh/TS.xlsx
+++ b/Daily Backup hourlys/30 min csh/TS.xlsx
@@ -586,19 +586,19 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="2" t="n">
-        <v>126.05</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>126.9</v>
+        <v>131.45</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>125.5</v>
+        <v>128.35</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>126.1</v>
+        <v>131</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>126.25</v>
+        <v>129.75</v>
       </c>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
@@ -649,13 +649,13 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>126.5</v>
+        <v>129.4</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>125.9</v>
+        <v>127.85</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>125.95</v>
+        <v>129.1</v>
       </c>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
@@ -674,13 +674,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>126.5</v>
+        <v>130.2</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>125.9</v>
+        <v>128.7</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>126.3</v>
+        <v>129.95</v>
       </c>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
@@ -699,13 +699,13 @@
         <v>0.4375</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>126.9</v>
+        <v>130.85</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>126.2</v>
+        <v>129.8</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>126.55</v>
+        <v>130.65</v>
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
@@ -724,13 +724,13 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>126.75</v>
+        <v>130.65</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>126.4</v>
+        <v>129.65</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>126.6</v>
+        <v>130.05</v>
       </c>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
@@ -749,13 +749,13 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>126.7</v>
+        <v>130.35</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>126.25</v>
+        <v>129.4</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>126.35</v>
+        <v>129.45</v>
       </c>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
@@ -774,13 +774,13 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>126.45</v>
+        <v>129.9</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>126</v>
+        <v>129.25</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>126.2</v>
+        <v>129.8</v>
       </c>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
@@ -799,13 +799,13 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>126.2</v>
+        <v>129.9</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>125.7</v>
+        <v>129.05</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>125.8</v>
+        <v>129.3</v>
       </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
@@ -824,13 +824,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>126</v>
+        <v>130.45</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>125.65</v>
+        <v>129.3</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>125.75</v>
+        <v>130.1</v>
       </c>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
@@ -849,13 +849,13 @@
         <v>0.5625</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>125.9</v>
+        <v>130.75</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>125.5</v>
+        <v>130</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>125.85</v>
+        <v>130.35</v>
       </c>
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
@@ -874,13 +874,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>125.95</v>
+        <v>131.2</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>125.55</v>
+        <v>129.8</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>125.65</v>
+        <v>130.3</v>
       </c>
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
@@ -899,13 +899,13 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>126.05</v>
+        <v>131.1</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>125.5</v>
+        <v>129.95</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>126</v>
+        <v>131.05</v>
       </c>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
@@ -924,13 +924,13 @@
         <v>0.625</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>126.25</v>
+        <v>131.25</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>125.95</v>
+        <v>130.75</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>126</v>
+        <v>130.95</v>
       </c>
       <c r="J20" s="1" t="n"/>
       <c r="K20" s="1" t="n"/>
@@ -949,13 +949,13 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>126.4</v>
+        <v>131.45</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>125.9</v>
+        <v>130.7</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>126.35</v>
+        <v>131.4</v>
       </c>
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
